--- a/production_recipe_management_tool_v1.1/data/Recipes_tmp/250_pieces_Chicken Basic Momo 25 Gm.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Recipes_tmp/250_pieces_Chicken Basic Momo 25 Gm.xlsx
@@ -485,13 +485,13 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="D3">
         <v>0.05</v>
       </c>
       <c r="E3">
-        <v>62.5</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -502,10 +502,10 @@
         <v>200</v>
       </c>
       <c r="D4">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
@@ -519,10 +519,10 @@
         <v>120</v>
       </c>
       <c r="D5">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="E5">
-        <v>12</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -547,13 +547,13 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0.15</v>
       </c>
       <c r="E7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
@@ -564,13 +564,13 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0.15</v>
       </c>
       <c r="E8">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
@@ -674,10 +674,10 @@
         <v>500</v>
       </c>
       <c r="D15">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="E15">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:6">
